--- a/resize_results.xlsx
+++ b/resize_results.xlsx
@@ -82,8 +82,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -100,19 +104,23 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -229,11 +237,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2142579336"/>
-        <c:axId val="2118044200"/>
+        <c:axId val="-2146744376"/>
+        <c:axId val="2102202024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2142579336"/>
+        <c:axId val="-2146744376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -243,12 +251,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118044200"/>
+        <c:crossAx val="2102202024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2118044200"/>
+        <c:axId val="2102202024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -259,7 +267,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142579336"/>
+        <c:crossAx val="-2146744376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -385,11 +393,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2118004728"/>
-        <c:axId val="2118053960"/>
+        <c:axId val="-2147235960"/>
+        <c:axId val="2101596968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2118004728"/>
+        <c:axId val="-2147235960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -399,12 +407,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118053960"/>
+        <c:crossAx val="2101596968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2118053960"/>
+        <c:axId val="2101596968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -415,7 +423,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118004728"/>
+        <c:crossAx val="-2147235960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -822,7 +830,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
